--- a/SQLSERVER_RechteAudit_pivot_new.xlsx
+++ b/SQLSERVER_RechteAudit_pivot_new.xlsx
@@ -973,8 +973,8 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="47.25" customHeight="0"/>
-    <row r="7" ht="22.2" customHeight="1"/>
+    <row r="6" ht="163.4" customHeight="0"/>
+    <row r="7" ht="10.55" customHeight="1"/>
     <row r="8" ht="0.75" customHeight="1">
       <c s="5" t="inlineStr" r="B8">
         <is>
@@ -13691,7 +13691,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;7 Bericht '/SQLSERVER_RechteAudit_pivot' 
 &amp;"-,Regular"Berichtsverantwortlicher: Markus Hofmann (IB15MH) &amp;C&amp;"Arial,Regular"&amp;10  &amp;R&amp;"Arial,Regular"&amp;7 Generiert von LAN\\PS733 
-&amp;"-,Regular"12.12.2025 12:23:01 Uhr 
+&amp;"-,Regular"12.12.2025 12:32:48 Uhr 
 &amp;"-,Regular"Seite &amp;P von </oddFooter>
   </headerFooter>
   <drawing r:id="rId7"/>
